--- a/Reports/IMPEXP/Download/DeviceValue/DeviceValue.xlsx
+++ b/Reports/IMPEXP/Download/DeviceValue/DeviceValue.xlsx
@@ -143,8 +143,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="000000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -277,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -306,20 +307,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,7 +634,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:L5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -672,20 +676,20 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="2"/>
@@ -702,40 +706,40 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:23" ht="25.5" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="18" t="s">
         <v>27</v>
       </c>
       <c r="N4" s="5"/>
@@ -750,40 +754,40 @@
       <c r="W4" s="6"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="N5" s="7" t="s">
